--- a/Result.xlsx
+++ b/Result.xlsx
@@ -435,58 +435,58 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>85.87459179895394</v>
+        <v>85.87459179895396</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>5.146993340807228</v>
+        <v>5.146993340807218</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>3.472132695071716</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2.083627804829166</v>
+        <v>2.083627804829163</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>1.31113379553306</v>
+        <v>1.311133795533058</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.555085156798077</v>
+        <v>0.5550851567980783</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.5224587692004391</v>
+        <v>0.5224587692004398</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.2817332767492832</v>
+        <v>0.2817332767492845</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.2242449231948694</v>
+        <v>0.2242449231948685</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1960620292841446</v>
+        <v>0.1960620292841437</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1732798875230933</v>
+        <v>0.173279887523095</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.07890617010539672</v>
+        <v>0.07890617010540134</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.04872126116671303</v>
+        <v>0.04872126116671285</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>0.0153897509517347</v>
+        <v>0.01538975095173425</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>0.009085351485515494</v>
+        <v>0.009085351485519703</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>0.00416733602910932</v>
+        <v>0.004167336029109306</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.001925127717760572</v>
+        <v>0.001925127717758223</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.0004615245987474752</v>
+        <v>0.0004615245987484989</v>
       </c>
     </row>
     <row r="2">
@@ -499,55 +499,55 @@
         <v>-0.2594319920230291</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1326499317903797</v>
+        <v>-0.132649931790381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3522360895251043</v>
+        <v>0.3522360895251038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05615692738094163</v>
+        <v>0.05615692738094094</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3040127372473335</v>
+        <v>-0.3040127372473326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1094824868424436</v>
+        <v>0.1094824868423835</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7166643120429076</v>
+        <v>-0.7166643120429177</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1123103546062745</v>
+        <v>-0.1123103546062785</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1303350761522336</v>
+        <v>0.1303350761522335</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04085235654408591</v>
+        <v>-0.04085235654409688</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1832732266928891</v>
+        <v>-0.1832732266928881</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3032796624486289</v>
+        <v>-0.3032796624486271</v>
       </c>
       <c r="N2" t="n">
-        <v>0.106582977678877</v>
+        <v>0.1065829776788515</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0307490648426072</v>
+        <v>-0.03074906484260589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02626562472974674</v>
+        <v>0.02626562472973923</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.002840510017347564</v>
+        <v>0.002840510017350013</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.004039351526767724</v>
+        <v>-0.004039351526765656</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0004268541664625094</v>
+        <v>-0.0004268541664472559</v>
       </c>
     </row>
     <row r="3">
@@ -557,58 +557,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2448374711918127</v>
+        <v>-0.2448374711918131</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1183444457531055</v>
+        <v>-0.118344445753106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.305479578089112</v>
+        <v>0.3054795780891114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03865463514096178</v>
+        <v>0.03865463514096083</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1640549696498156</v>
+        <v>-0.1640549696498147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01192287258136694</v>
+        <v>0.01192287258136104</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05689752920641066</v>
+        <v>-0.05689752920640011</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02759703510986553</v>
+        <v>0.02759703510987102</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06473987639633713</v>
+        <v>-0.06473987639634034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02594792269743476</v>
+        <v>0.02594792269745372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1199384186448122</v>
+        <v>0.1199384186448213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6246662314276114</v>
+        <v>0.6246662314276472</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3330236821251841</v>
+        <v>-0.3330236821251617</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3972313706675252</v>
+        <v>0.3972313706676716</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3289026387620048</v>
+        <v>-0.3289026387619721</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05091931939236474</v>
+        <v>-0.05091931939236435</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1023092336499956</v>
+        <v>0.1023092336499436</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02810747545642969</v>
+        <v>0.02810747545624882</v>
       </c>
     </row>
     <row r="4">
@@ -621,55 +621,55 @@
         <v>-0.2284240724935665</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1158974014602903</v>
+        <v>-0.115897401460291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2907555930002715</v>
+        <v>0.2907555930002712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0302537658824099</v>
+        <v>0.03025376588240869</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0883915303875755</v>
+        <v>-0.08839153038757677</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03343247697214968</v>
+        <v>-0.03343247697213494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1437762525124999</v>
+        <v>0.1437762525124966</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02300756476331396</v>
+        <v>0.02300756476331276</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05622739270513474</v>
+        <v>-0.05622739270512801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02841553991254186</v>
+        <v>0.02841553991254248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1200288233136774</v>
+        <v>0.1200288233136868</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3284870632832916</v>
+        <v>0.3284870632832645</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07219172186083388</v>
+        <v>0.07219172186087784</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4863252009764544</v>
+        <v>-0.4863252009766339</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3296546670278022</v>
+        <v>0.3296546670278779</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.05520690528354356</v>
+        <v>0.05520690528375634</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.5525751480904872</v>
+        <v>-0.5525751480905167</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1836888796161363</v>
+        <v>-0.1836888796154986</v>
       </c>
     </row>
     <row r="5">
@@ -682,55 +682,55 @@
         <v>-0.2156538184415352</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1133341402237967</v>
+        <v>-0.1133341402237971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2802053892415845</v>
+        <v>0.2802053892415842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02547019103533936</v>
+        <v>0.02547019103533953</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0512038018557912</v>
+        <v>-0.05120380185579011</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06234604165441697</v>
+        <v>-0.06234604165439646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2601015899232044</v>
+        <v>0.260101589923209</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03467390252383248</v>
+        <v>0.03467390252384018</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03999365320630546</v>
+        <v>-0.03999365320630575</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01143967857817782</v>
+        <v>0.01143967857818302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05822788508088039</v>
+        <v>0.05822788508086679</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01417109539290925</v>
+        <v>-0.01417109539293153</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09619970082729411</v>
+        <v>0.09619970082731373</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2498282263099826</v>
+        <v>-0.2498282263100883</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2620107179773953</v>
+        <v>0.262010717977135</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.06285960727610049</v>
+        <v>0.06285960727573334</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5568032516528403</v>
+        <v>0.5568032516532827</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5714018199363581</v>
+        <v>0.5714018199358381</v>
       </c>
     </row>
     <row r="6">
@@ -743,55 +743,55 @@
         <v>-0.2053375920429829</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1112230588321293</v>
+        <v>-0.1112230588321297</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2697216288289367</v>
+        <v>0.2697216288289364</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0225457280337119</v>
+        <v>0.02254572803371271</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02395455201542144</v>
+        <v>-0.02395455201542235</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08132857962050712</v>
+        <v>-0.08132857962048159</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3329743623604375</v>
+        <v>0.3329743623604385</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03844676788163989</v>
+        <v>0.03844676788163365</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02487005442865765</v>
+        <v>-0.02487005442865724</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.005318202366906667</v>
+        <v>-0.005318202366916705</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.003164742937373888</v>
+        <v>-0.00316474293738199</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2655744462219224</v>
+        <v>-0.2655744462219468</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05680425939427388</v>
+        <v>0.05680425939427313</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07969744937080753</v>
+        <v>0.07969744937073628</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.009248890587382753</v>
+        <v>-0.009248890587254224</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006079770921252357</v>
+        <v>-0.00607977092137657</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3668537353216628</v>
+        <v>0.3668537353211982</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.7329395733564373</v>
+        <v>-0.7329395733568175</v>
       </c>
     </row>
     <row r="7">
@@ -801,58 +801,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.196527247685333</v>
+        <v>-0.1965272476853329</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1086233480698297</v>
+        <v>-0.10862334806983</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2587479841557464</v>
+        <v>0.258747984155747</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0182812322696132</v>
+        <v>0.01828123226961338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002793248167088974</v>
+        <v>0.000279324816708512</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09685127255060252</v>
+        <v>-0.09685127255056966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3869646452950096</v>
+        <v>0.3869646452950125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03462840097835692</v>
+        <v>0.03462840097835442</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006468329823571061</v>
+        <v>-0.006468329823574159</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01884820175773484</v>
+        <v>-0.01884820175773727</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05305826123548993</v>
+        <v>-0.0530582612354918</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.4462166400592483</v>
+        <v>-0.4462166400592149</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04615103179885204</v>
+        <v>0.04615103179878879</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2969217533070459</v>
+        <v>0.2969217533072713</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3051197065856921</v>
+        <v>-0.3051197065856578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07456445472786537</v>
+        <v>-0.07456445472758297</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4786890897747273</v>
+        <v>-0.4786890897746396</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3186802948633232</v>
+        <v>0.3186802948637572</v>
       </c>
     </row>
     <row r="8">
@@ -865,55 +865,55 @@
         <v>-0.2749900259507386</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2244931614028859</v>
+        <v>-0.224493161402885</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5156357640507797</v>
+        <v>-0.51563576405078</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2024411651995913</v>
+        <v>-0.2024411651995922</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6046389685535314</v>
+        <v>-0.6046389685535322</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1124094237105864</v>
+        <v>0.1124094237106045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2344470324803525</v>
+        <v>0.2344470324803448</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07969050769335893</v>
+        <v>-0.07969050769336171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2019981719216489</v>
+        <v>0.2019981719216531</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.04361966956412991</v>
+        <v>-0.04361966956413655</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2342717496718651</v>
+        <v>-0.2342717496718589</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09810360371132669</v>
+        <v>0.09810360371132604</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1363365340988706</v>
+        <v>0.1363365340988729</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.003532580766913072</v>
+        <v>-0.003532580766892656</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.04130899728840081</v>
+        <v>-0.04130899728839917</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0004473695952587008</v>
+        <v>0.0004473695952509147</v>
       </c>
       <c r="R8" t="n">
-        <v>0.007534155317200798</v>
+        <v>0.00753415531718658</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.001859395003588294</v>
+        <v>-0.001859395003600513</v>
       </c>
     </row>
     <row r="9">
@@ -926,55 +926,55 @@
         <v>-0.2628712708090274</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2341959566830057</v>
+        <v>-0.2341959566830052</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3045327041464509</v>
+        <v>-0.3045327041464517</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04565338987260428</v>
+        <v>-0.04565338987260372</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03965789041909914</v>
+        <v>-0.03965789041909855</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03602949579616715</v>
+        <v>-0.03602949579617614</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1266115820649631</v>
+        <v>-0.1266115820649575</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1492178656800483</v>
+        <v>0.1492178656800532</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3177736893373808</v>
+        <v>-0.3177736893373865</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03734134246095775</v>
+        <v>0.0373413424609657</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3663204794581998</v>
+        <v>0.3663204794581927</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3012572239033713</v>
+        <v>-0.3012572239033694</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5498788863121719</v>
+        <v>-0.5498788863121752</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08707663143218869</v>
+        <v>0.0870766314320213</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3068324864459666</v>
+        <v>0.3068324864459735</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.07899559206199505</v>
+        <v>0.0789955920620533</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04844120298300527</v>
+        <v>-0.04844120298285711</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007480109889083077</v>
+        <v>0.007480109889176319</v>
       </c>
     </row>
     <row r="10">
@@ -984,58 +984,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2448523619968488</v>
+        <v>-0.2448523619968489</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2241988134495135</v>
+        <v>-0.2241988134495133</v>
       </c>
       <c r="D10" t="n">
         <v>-0.2282846427076612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06544704478174496</v>
+        <v>0.06544704478174559</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1900372704712267</v>
+        <v>0.1900372704712268</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1255608531354406</v>
+        <v>-0.1255608531354546</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1693124073960355</v>
+        <v>-0.169312407396028</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1294311672342522</v>
+        <v>0.1294311672342502</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1916708324457449</v>
+        <v>-0.1916708324457457</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06460615098537131</v>
+        <v>0.06460615098538655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2812519382879394</v>
+        <v>0.2812519382879344</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003370791185231585</v>
+        <v>0.003370791185233473</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3004795610258419</v>
+        <v>0.3004795610258252</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3641188793714004</v>
+        <v>-0.3641188793710681</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.5159965955815071</v>
+        <v>-0.515996595581578</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3480796167881494</v>
+        <v>-0.3480796167882715</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07567044491720087</v>
+        <v>0.07567044491680183</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.007216893374491674</v>
+        <v>-0.007216893374646545</v>
       </c>
     </row>
     <row r="11">
@@ -1045,58 +1045,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2315536911093447</v>
+        <v>-0.2315536911093446</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1979104608271949</v>
+        <v>-0.1979104608271948</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1618069612634227</v>
+        <v>-0.1618069612634232</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1776714644734059</v>
+        <v>0.177671464473406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2950514581961539</v>
+        <v>0.2950514581961545</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07060242466363383</v>
+        <v>-0.0706024246636385</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.09733673416446627</v>
+        <v>-0.09733673416446338</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05666922501659202</v>
+        <v>0.05666922501659335</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002432241131365726</v>
+        <v>0.002432241131366661</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001486683746326574</v>
+        <v>-0.001486683746329092</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04337223275801363</v>
+        <v>0.04337223275801048</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1256313742786245</v>
+        <v>0.1256313742786184</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4343724964287132</v>
+        <v>0.4343724964287311</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3144619919739857</v>
+        <v>0.3144619919738045</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06722783490252994</v>
+        <v>0.06722783490262171</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.6586806650125928</v>
+        <v>0.6586806650126628</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.03334226449423147</v>
+        <v>-0.03334226449372792</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.003154947201587105</v>
+        <v>-0.003154947201529701</v>
       </c>
     </row>
     <row r="12">
@@ -1106,58 +1106,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2210400950521695</v>
+        <v>-0.2210400950521693</v>
       </c>
       <c r="C12" t="n">
         <v>-0.1611399584697291</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1158158968038425</v>
+        <v>-0.1158158968038432</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2479346701746991</v>
+        <v>0.2479346701746996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3339222965996481</v>
+        <v>0.3339222965996483</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09012646138914471</v>
+        <v>0.09012646138914326</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002977028774959086</v>
+        <v>0.002977028774952897</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1215514760191516</v>
+        <v>-0.1215514760191501</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1467281319644704</v>
+        <v>0.1467281319644711</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02306226217801629</v>
+        <v>0.02306226217800776</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1794491250911688</v>
+        <v>-0.1794491250911719</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1105139340926476</v>
+        <v>0.1105139340926201</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0935150498868943</v>
+        <v>0.09351504988690001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2916724356845649</v>
+        <v>0.2916724356844977</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4328019316586641</v>
+        <v>0.4328019316586834</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6063895095875614</v>
+        <v>-0.6063895095874887</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.02207505270364722</v>
+        <v>-0.02207505270396647</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008514804936606776</v>
+        <v>0.008514804936672319</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         <v>-0.1120279209783469</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07720474943201037</v>
+        <v>-0.07720474943201061</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2676160840712387</v>
+        <v>0.267616084071239</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3429461129831534</v>
+        <v>0.3429461129831529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2344212956508872</v>
+        <v>0.2344212956508938</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09224793491675308</v>
+        <v>0.0922479349167431</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2685118907117101</v>
+        <v>-0.2685118907117126</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1735262980288761</v>
+        <v>0.1735262980288747</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05987598566088129</v>
+        <v>-0.05987598566089115</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3608600166378153</v>
+        <v>-0.3608600166378029</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03235960026627697</v>
+        <v>-0.03235960026624159</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.457297907154559</v>
+        <v>-0.4572979071545658</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3439733550537642</v>
+        <v>-0.3439733550537015</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2550814180053977</v>
+        <v>-0.2550814180054491</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2309684514282455</v>
+        <v>0.2309684514281682</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02595834444440521</v>
+        <v>0.02595834444449369</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003736862329470928</v>
+        <v>-0.003736862329525232</v>
       </c>
     </row>
     <row r="14">
@@ -1228,58 +1228,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2834605717675092</v>
+        <v>-0.283460571767509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6028351814472909</v>
+        <v>0.6028351814472905</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1512438734638907</v>
+        <v>-0.1512438734638895</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5120753745701528</v>
+        <v>0.5120753745701524</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2283880423056626</v>
+        <v>-0.2283880423056615</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4342250752268031</v>
+        <v>-0.4342250752268041</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002398819224185653</v>
+        <v>0.002398819224205351</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1601313586389498</v>
+        <v>-0.1601313586389476</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001418551994015252</v>
+        <v>0.00141855199400803</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02253301667817409</v>
+        <v>0.02253301667818122</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05342540540812515</v>
+        <v>0.05342540540812274</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.02079554187534867</v>
+        <v>-0.02079554187534604</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.03063947990585424</v>
+        <v>-0.03063947990585475</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.006145243495063032</v>
+        <v>-0.006145243495063803</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003139996591605279</v>
+        <v>0.00313999659160459</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0006216915019598206</v>
+        <v>-0.0006216915019581859</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0005980196414440681</v>
+        <v>-0.0005980196414450041</v>
       </c>
       <c r="S14" t="n">
-        <v>8.059620070565003e-05</v>
+        <v>8.059620070857556e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1292,55 +1292,55 @@
         <v>-0.2629739053342598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3949698427268322</v>
+        <v>0.3949698427268324</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01718228741099332</v>
+        <v>-0.01718228741099239</v>
       </c>
       <c r="E15" t="n">
         <v>0.04124526828120991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02663219254136788</v>
+        <v>0.02663219254136658</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4730601051377254</v>
+        <v>0.4730601051377306</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008911462600898616</v>
+        <v>0.008911462600878906</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6854497000740851</v>
+        <v>0.6854497000740811</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1449444395668617</v>
+        <v>-0.1449444395668408</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.09779050190969953</v>
+        <v>-0.09779050190973192</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2136379741865614</v>
+        <v>-0.2136379741865545</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004828024796844963</v>
+        <v>0.004828024796839028</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04199435939793901</v>
+        <v>0.04199435939794007</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01235763395606159</v>
+        <v>-0.01235763395606047</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.001361952344697104</v>
+        <v>-0.001361952344703339</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01634220394462688</v>
+        <v>-0.01634220394463072</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003056343123344232</v>
+        <v>-0.003056343123360011</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0006597461244845388</v>
+        <v>0.0006597461244822638</v>
       </c>
     </row>
     <row r="16">
@@ -1350,58 +1350,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.239042662125634</v>
+        <v>-0.2390426621256339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2951855218780996</v>
+        <v>0.2951855218780999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0183123401473624</v>
+        <v>0.01831234014736316</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2175004578435843</v>
+        <v>-0.2175004578435845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09854579736170438</v>
+        <v>0.0985457973617055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4252337016128075</v>
+        <v>0.4252337016128069</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04686217689505278</v>
+        <v>0.04686217689503163</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2526613757391234</v>
+        <v>-0.2526613757391242</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4206124641519794</v>
+        <v>0.420612464151964</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2414513747768668</v>
+        <v>0.2414513747769269</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5518263444129957</v>
+        <v>0.5518263444129822</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.07669261876811596</v>
+        <v>-0.07669261876812006</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05796528577382151</v>
+        <v>0.05796528577381404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03444818570192928</v>
+        <v>0.03444818570194642</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.02829554105013123</v>
+        <v>-0.02829554105012267</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.02351465426464944</v>
+        <v>0.02351465426465416</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001897799968019546</v>
+        <v>0.001897799968040408</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.0014139184198636</v>
+        <v>-0.001413918419866769</v>
       </c>
     </row>
     <row r="17">
@@ -1411,58 +1411,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2210462102063998</v>
+        <v>-0.2210462102063996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2248568812710458</v>
+        <v>0.224856881271046</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006563696356188703</v>
+        <v>0.006563696356189349</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.355937726123416</v>
+        <v>-0.3559377261234164</v>
       </c>
       <c r="F17" t="n">
         <v>0.1223757882155797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1002691879559028</v>
+        <v>0.1002691879559032</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00353183704388361</v>
+        <v>-0.00353183704388763</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4746698753258708</v>
+        <v>-0.474669875325877</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.5377214177373603</v>
+        <v>-0.5377214177373447</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4602021737600998</v>
+        <v>-0.4602021737601235</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.06951042882708061</v>
+        <v>-0.06951042882705118</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04003171906951327</v>
+        <v>0.0400317190695275</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1159140406416654</v>
+        <v>0.1159140406416632</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04646392949691636</v>
+        <v>0.04646392949691614</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01378311074459972</v>
+        <v>0.01378311074460648</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01830549287002698</v>
+        <v>-0.01830549287002382</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002202865636221276</v>
+        <v>0.002202865636212193</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001394151987791391</v>
+        <v>0.0001394151987836253</v>
       </c>
     </row>
     <row r="18">
@@ -1475,55 +1475,55 @@
         <v>-0.2094007937400335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1451990691796037</v>
+        <v>0.145199069179604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001750869994538987</v>
+        <v>0.001750869994539115</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4223621237999987</v>
+        <v>-0.4223621237999984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1545193494403355</v>
+        <v>0.1545193494403352</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2441768863540433</v>
+        <v>-0.2441768863540465</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07018650155495779</v>
+        <v>-0.07018650155494555</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01663663494854766</v>
+        <v>-0.01663663494853412</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1359351529803415</v>
+        <v>-0.1359351529803765</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7107232082144751</v>
+        <v>0.7107232082144433</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3754835980489732</v>
+        <v>-0.3754835980490258</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02891678603016242</v>
+        <v>0.0289167860301445</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.03980765158228042</v>
+        <v>-0.03980765158226665</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.003721360573408081</v>
+        <v>-0.003721360573430601</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01253690354549805</v>
+        <v>0.01253690354550829</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.02807476454477318</v>
+        <v>0.02807476454477719</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0006188563802531757</v>
+        <v>-0.0006188563802365548</v>
       </c>
       <c r="S18" t="n">
-        <v>-2.245731772648239e-05</v>
+        <v>-2.245731773331096e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1533,13 +1533,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2039100852597371</v>
+        <v>-0.203910085259737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08104267435778043</v>
+        <v>0.08104267435778061</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004087584214198001</v>
+        <v>-0.004087584214197966</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4057441975962063</v>
@@ -1548,43 +1548,43 @@
         <v>0.2208461660489219</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4541745983530882</v>
+        <v>-0.4541745983530979</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09665140655354676</v>
+        <v>-0.09665140655352694</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2487020799709803</v>
+        <v>0.2487020799709742</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4875286504026951</v>
+        <v>0.4875286504027169</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4466124944724024</v>
+        <v>-0.4466124944723817</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.009798270318692294</v>
+        <v>-0.009798270318655123</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04310855603940646</v>
+        <v>0.04310855603941698</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.1379902973629511</v>
+        <v>-0.1379902973629556</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.04262722338736196</v>
+        <v>-0.04262722338736581</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02143733892458166</v>
+        <v>0.02143733892456426</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02333921641597458</v>
+        <v>-0.02333921641598109</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001313407679983377</v>
+        <v>0.001313407679971437</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0004703467080193776</v>
+        <v>-0.0004703467080142287</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -435,58 +435,58 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>85.87459179895396</v>
+        <v>85.87459179895394</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>5.146993340807218</v>
+        <v>5.146993340807228</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>3.472132695071716</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2.083627804829163</v>
+        <v>2.083627804829166</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>1.311133795533058</v>
+        <v>1.31113379553306</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.5550851567980783</v>
+        <v>0.555085156798077</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.5224587692004398</v>
+        <v>0.5224587692004391</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.2817332767492845</v>
+        <v>0.2817332767492832</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.2242449231948685</v>
+        <v>0.2242449231948694</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1960620292841437</v>
+        <v>0.1960620292841446</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.173279887523095</v>
+        <v>0.1732798875230933</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.07890617010540134</v>
+        <v>0.07890617010539672</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.04872126116671285</v>
+        <v>0.04872126116671303</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>0.01538975095173425</v>
+        <v>0.0153897509517347</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>0.009085351485519703</v>
+        <v>0.009085351485515494</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>0.004167336029109306</v>
+        <v>0.00416733602910932</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.001925127717758223</v>
+        <v>0.001925127717760572</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.0004615245987484989</v>
+        <v>0.0004615245987474752</v>
       </c>
     </row>
     <row r="2">
@@ -499,55 +499,55 @@
         <v>-0.2594319920230291</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.132649931790381</v>
+        <v>-0.1326499317903797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3522360895251038</v>
+        <v>0.3522360895251043</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05615692738094094</v>
+        <v>0.05615692738094163</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3040127372473326</v>
+        <v>-0.3040127372473335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1094824868423835</v>
+        <v>0.1094824868424436</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7166643120429177</v>
+        <v>-0.7166643120429076</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1123103546062785</v>
+        <v>-0.1123103546062745</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1303350761522335</v>
+        <v>0.1303350761522336</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.04085235654409688</v>
+        <v>-0.04085235654408591</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1832732266928881</v>
+        <v>-0.1832732266928891</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3032796624486271</v>
+        <v>-0.3032796624486289</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1065829776788515</v>
+        <v>0.106582977678877</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.03074906484260589</v>
+        <v>-0.0307490648426072</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02626562472973923</v>
+        <v>0.02626562472974674</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002840510017350013</v>
+        <v>-0.002840510017347564</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.004039351526765656</v>
+        <v>-0.004039351526767724</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0004268541664472559</v>
+        <v>-0.0004268541664625094</v>
       </c>
     </row>
     <row r="3">
@@ -557,58 +557,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2448374711918131</v>
+        <v>-0.2448374711918127</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.118344445753106</v>
+        <v>-0.1183444457531055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3054795780891114</v>
+        <v>0.305479578089112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03865463514096083</v>
+        <v>0.03865463514096178</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1640549696498147</v>
+        <v>-0.1640549696498156</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01192287258136104</v>
+        <v>0.01192287258136694</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05689752920640011</v>
+        <v>-0.05689752920641066</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02759703510987102</v>
+        <v>0.02759703510986553</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06473987639634034</v>
+        <v>-0.06473987639633713</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02594792269745372</v>
+        <v>0.02594792269743476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1199384186448213</v>
+        <v>0.1199384186448122</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6246662314276472</v>
+        <v>0.6246662314276114</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3330236821251617</v>
+        <v>-0.3330236821251841</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3972313706676716</v>
+        <v>0.3972313706675252</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3289026387619721</v>
+        <v>-0.3289026387620048</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.05091931939236435</v>
+        <v>0.05091931939236474</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1023092336499436</v>
+        <v>0.1023092336499956</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02810747545624882</v>
+        <v>0.02810747545642969</v>
       </c>
     </row>
     <row r="4">
@@ -621,55 +621,55 @@
         <v>-0.2284240724935665</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.115897401460291</v>
+        <v>-0.1158974014602903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2907555930002712</v>
+        <v>0.2907555930002715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03025376588240869</v>
+        <v>0.0302537658824099</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08839153038757677</v>
+        <v>-0.0883915303875755</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03343247697213494</v>
+        <v>-0.03343247697214968</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1437762525124966</v>
+        <v>0.1437762525124999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02300756476331276</v>
+        <v>0.02300756476331396</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05622739270512801</v>
+        <v>-0.05622739270513474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02841553991254248</v>
+        <v>0.02841553991254186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1200288233136868</v>
+        <v>0.1200288233136774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3284870632832645</v>
+        <v>0.3284870632832916</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07219172186087784</v>
+        <v>0.07219172186083388</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4863252009766339</v>
+        <v>-0.4863252009764544</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3296546670278779</v>
+        <v>0.3296546670278022</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05520690528375634</v>
+        <v>-0.05520690528354356</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.5525751480905167</v>
+        <v>-0.5525751480904872</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1836888796154986</v>
+        <v>-0.1836888796161363</v>
       </c>
     </row>
     <row r="5">
@@ -682,55 +682,55 @@
         <v>-0.2156538184415352</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1133341402237971</v>
+        <v>-0.1133341402237967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2802053892415842</v>
+        <v>0.2802053892415845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02547019103533953</v>
+        <v>0.02547019103533936</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05120380185579011</v>
+        <v>-0.0512038018557912</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06234604165439646</v>
+        <v>-0.06234604165441697</v>
       </c>
       <c r="H5" t="n">
-        <v>0.260101589923209</v>
+        <v>0.2601015899232044</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03467390252384018</v>
+        <v>0.03467390252383248</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03999365320630575</v>
+        <v>-0.03999365320630546</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01143967857818302</v>
+        <v>0.01143967857817782</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05822788508086679</v>
+        <v>0.05822788508088039</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01417109539293153</v>
+        <v>-0.01417109539290925</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09619970082731373</v>
+        <v>0.09619970082729411</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2498282263100883</v>
+        <v>-0.2498282263099826</v>
       </c>
       <c r="P5" t="n">
-        <v>0.262010717977135</v>
+        <v>0.2620107179773953</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06285960727573334</v>
+        <v>-0.06285960727610049</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5568032516532827</v>
+        <v>0.5568032516528403</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5714018199358381</v>
+        <v>0.5714018199363581</v>
       </c>
     </row>
     <row r="6">
@@ -743,55 +743,55 @@
         <v>-0.2053375920429829</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1112230588321297</v>
+        <v>-0.1112230588321293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2697216288289364</v>
+        <v>0.2697216288289367</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02254572803371271</v>
+        <v>0.0225457280337119</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02395455201542235</v>
+        <v>-0.02395455201542144</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08132857962048159</v>
+        <v>-0.08132857962050712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3329743623604385</v>
+        <v>0.3329743623604375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03844676788163365</v>
+        <v>0.03844676788163989</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02487005442865724</v>
+        <v>-0.02487005442865765</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.005318202366916705</v>
+        <v>-0.005318202366906667</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00316474293738199</v>
+        <v>-0.003164742937373888</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2655744462219468</v>
+        <v>-0.2655744462219224</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05680425939427313</v>
+        <v>0.05680425939427388</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07969744937073628</v>
+        <v>0.07969744937080753</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.009248890587254224</v>
+        <v>-0.009248890587382753</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.00607977092137657</v>
+        <v>0.006079770921252357</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3668537353211982</v>
+        <v>0.3668537353216628</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.7329395733568175</v>
+        <v>-0.7329395733564373</v>
       </c>
     </row>
     <row r="7">
@@ -801,58 +801,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1965272476853329</v>
+        <v>-0.196527247685333</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.10862334806983</v>
+        <v>-0.1086233480698297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.258747984155747</v>
+        <v>0.2587479841557464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01828123226961338</v>
+        <v>0.0182812322696132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000279324816708512</v>
+        <v>0.0002793248167088974</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09685127255056966</v>
+        <v>-0.09685127255060252</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3869646452950125</v>
+        <v>0.3869646452950096</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03462840097835442</v>
+        <v>0.03462840097835692</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006468329823574159</v>
+        <v>-0.006468329823571061</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01884820175773727</v>
+        <v>-0.01884820175773484</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0530582612354918</v>
+        <v>-0.05305826123548993</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.4462166400592149</v>
+        <v>-0.4462166400592483</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04615103179878879</v>
+        <v>0.04615103179885204</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2969217533072713</v>
+        <v>0.2969217533070459</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3051197065856578</v>
+        <v>-0.3051197065856921</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.07456445472758297</v>
+        <v>0.07456445472786537</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4786890897746396</v>
+        <v>-0.4786890897747273</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3186802948637572</v>
+        <v>0.3186802948633232</v>
       </c>
     </row>
     <row r="8">
@@ -865,55 +865,55 @@
         <v>-0.2749900259507386</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.224493161402885</v>
+        <v>-0.2244931614028859</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.51563576405078</v>
+        <v>-0.5156357640507797</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2024411651995922</v>
+        <v>-0.2024411651995913</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6046389685535322</v>
+        <v>-0.6046389685535314</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1124094237106045</v>
+        <v>0.1124094237105864</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2344470324803448</v>
+        <v>0.2344470324803525</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07969050769336171</v>
+        <v>-0.07969050769335893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2019981719216531</v>
+        <v>0.2019981719216489</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.04361966956413655</v>
+        <v>-0.04361966956412991</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2342717496718589</v>
+        <v>-0.2342717496718651</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09810360371132604</v>
+        <v>0.09810360371132669</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1363365340988729</v>
+        <v>0.1363365340988706</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.003532580766892656</v>
+        <v>-0.003532580766913072</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.04130899728839917</v>
+        <v>-0.04130899728840081</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0004473695952509147</v>
+        <v>-0.0004473695952587008</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00753415531718658</v>
+        <v>0.007534155317200798</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.001859395003600513</v>
+        <v>-0.001859395003588294</v>
       </c>
     </row>
     <row r="9">
@@ -926,55 +926,55 @@
         <v>-0.2628712708090274</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2341959566830052</v>
+        <v>-0.2341959566830057</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3045327041464517</v>
+        <v>-0.3045327041464509</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04565338987260372</v>
+        <v>-0.04565338987260428</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03965789041909855</v>
+        <v>-0.03965789041909914</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03602949579617614</v>
+        <v>-0.03602949579616715</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1266115820649575</v>
+        <v>-0.1266115820649631</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1492178656800532</v>
+        <v>0.1492178656800483</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3177736893373865</v>
+        <v>-0.3177736893373808</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0373413424609657</v>
+        <v>0.03734134246095775</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3663204794581927</v>
+        <v>0.3663204794581998</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3012572239033694</v>
+        <v>-0.3012572239033713</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5498788863121752</v>
+        <v>-0.5498788863121719</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0870766314320213</v>
+        <v>0.08707663143218869</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3068324864459735</v>
+        <v>0.3068324864459666</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0789955920620533</v>
+        <v>-0.07899559206199505</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04844120298285711</v>
+        <v>-0.04844120298300527</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007480109889176319</v>
+        <v>0.007480109889083077</v>
       </c>
     </row>
     <row r="10">
@@ -984,58 +984,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2448523619968489</v>
+        <v>-0.2448523619968488</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2241988134495133</v>
+        <v>-0.2241988134495135</v>
       </c>
       <c r="D10" t="n">
         <v>-0.2282846427076612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06544704478174559</v>
+        <v>0.06544704478174496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1900372704712268</v>
+        <v>0.1900372704712267</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1255608531354546</v>
+        <v>-0.1255608531354406</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.169312407396028</v>
+        <v>-0.1693124073960355</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1294311672342502</v>
+        <v>0.1294311672342522</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1916708324457457</v>
+        <v>-0.1916708324457449</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06460615098538655</v>
+        <v>0.06460615098537131</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2812519382879344</v>
+        <v>0.2812519382879394</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003370791185233473</v>
+        <v>0.003370791185231585</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3004795610258252</v>
+        <v>0.3004795610258419</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3641188793710681</v>
+        <v>-0.3641188793714004</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.515996595581578</v>
+        <v>-0.5159965955815071</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.3480796167882715</v>
+        <v>0.3480796167881494</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07567044491680183</v>
+        <v>0.07567044491720087</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.007216893374646545</v>
+        <v>-0.007216893374491674</v>
       </c>
     </row>
     <row r="11">
@@ -1045,58 +1045,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2315536911093446</v>
+        <v>-0.2315536911093447</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1979104608271948</v>
+        <v>-0.1979104608271949</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1618069612634232</v>
+        <v>-0.1618069612634227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.177671464473406</v>
+        <v>0.1776714644734059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2950514581961545</v>
+        <v>0.2950514581961539</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0706024246636385</v>
+        <v>-0.07060242466363383</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.09733673416446338</v>
+        <v>-0.09733673416446627</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05666922501659335</v>
+        <v>0.05666922501659202</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002432241131366661</v>
+        <v>0.002432241131365726</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001486683746329092</v>
+        <v>-0.001486683746326574</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04337223275801048</v>
+        <v>0.04337223275801363</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1256313742786184</v>
+        <v>0.1256313742786245</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4343724964287311</v>
+        <v>0.4343724964287132</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3144619919738045</v>
+        <v>0.3144619919739857</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06722783490262171</v>
+        <v>0.06722783490252994</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6586806650126628</v>
+        <v>-0.6586806650125928</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.03334226449372792</v>
+        <v>-0.03334226449423147</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.003154947201529701</v>
+        <v>-0.003154947201587105</v>
       </c>
     </row>
     <row r="12">
@@ -1106,58 +1106,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2210400950521693</v>
+        <v>-0.2210400950521695</v>
       </c>
       <c r="C12" t="n">
         <v>-0.1611399584697291</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1158158968038432</v>
+        <v>-0.1158158968038425</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2479346701746996</v>
+        <v>0.2479346701746991</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3339222965996483</v>
+        <v>0.3339222965996481</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09012646138914326</v>
+        <v>0.09012646138914471</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002977028774952897</v>
+        <v>0.002977028774959086</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1215514760191501</v>
+        <v>-0.1215514760191516</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1467281319644711</v>
+        <v>0.1467281319644704</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02306226217800776</v>
+        <v>0.02306226217801629</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1794491250911719</v>
+        <v>-0.1794491250911688</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1105139340926201</v>
+        <v>0.1105139340926476</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09351504988690001</v>
+        <v>0.0935150498868943</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2916724356844977</v>
+        <v>0.2916724356845649</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4328019316586834</v>
+        <v>0.4328019316586641</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.6063895095874887</v>
+        <v>0.6063895095875614</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.02207505270396647</v>
+        <v>-0.02207505270364722</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008514804936672319</v>
+        <v>0.008514804936606776</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         <v>-0.1120279209783469</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07720474943201061</v>
+        <v>-0.07720474943201037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.267616084071239</v>
+        <v>0.2676160840712387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3429461129831529</v>
+        <v>0.3429461129831534</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2344212956508938</v>
+        <v>0.2344212956508872</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0922479349167431</v>
+        <v>0.09224793491675308</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2685118907117126</v>
+        <v>-0.2685118907117101</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1735262980288747</v>
+        <v>0.1735262980288761</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05987598566089115</v>
+        <v>-0.05987598566088129</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3608600166378029</v>
+        <v>-0.3608600166378153</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03235960026624159</v>
+        <v>-0.03235960026627697</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4572979071545658</v>
+        <v>-0.457297907154559</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3439733550537015</v>
+        <v>-0.3439733550537642</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2550814180054491</v>
+        <v>-0.2550814180053977</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2309684514281682</v>
+        <v>-0.2309684514282455</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02595834444449369</v>
+        <v>0.02595834444440521</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003736862329525232</v>
+        <v>-0.003736862329470928</v>
       </c>
     </row>
     <row r="14">
@@ -1228,58 +1228,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.283460571767509</v>
+        <v>-0.2834605717675092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6028351814472905</v>
+        <v>0.6028351814472909</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1512438734638895</v>
+        <v>-0.1512438734638907</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5120753745701524</v>
+        <v>0.5120753745701528</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2283880423056615</v>
+        <v>-0.2283880423056626</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4342250752268041</v>
+        <v>-0.4342250752268031</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002398819224205351</v>
+        <v>0.002398819224185653</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1601313586389476</v>
+        <v>-0.1601313586389498</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00141855199400803</v>
+        <v>0.001418551994015252</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02253301667818122</v>
+        <v>0.02253301667817409</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05342540540812274</v>
+        <v>0.05342540540812515</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.02079554187534604</v>
+        <v>-0.02079554187534867</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.03063947990585475</v>
+        <v>-0.03063947990585424</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.006145243495063803</v>
+        <v>-0.006145243495063032</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00313999659160459</v>
+        <v>0.003139996591605279</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0006216915019581859</v>
+        <v>0.0006216915019598206</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0005980196414450041</v>
+        <v>-0.0005980196414440681</v>
       </c>
       <c r="S14" t="n">
-        <v>8.059620070857556e-05</v>
+        <v>8.059620070565003e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1292,55 +1292,55 @@
         <v>-0.2629739053342598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3949698427268324</v>
+        <v>0.3949698427268322</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01718228741099239</v>
+        <v>-0.01718228741099332</v>
       </c>
       <c r="E15" t="n">
         <v>0.04124526828120991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02663219254136658</v>
+        <v>0.02663219254136788</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4730601051377306</v>
+        <v>0.4730601051377254</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008911462600878906</v>
+        <v>0.008911462600898616</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6854497000740811</v>
+        <v>0.6854497000740851</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1449444395668408</v>
+        <v>-0.1449444395668617</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.09779050190973192</v>
+        <v>-0.09779050190969953</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2136379741865545</v>
+        <v>-0.2136379741865614</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004828024796839028</v>
+        <v>0.004828024796844963</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04199435939794007</v>
+        <v>0.04199435939793901</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01235763395606047</v>
+        <v>-0.01235763395606159</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.001361952344703339</v>
+        <v>-0.001361952344697104</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01634220394463072</v>
+        <v>0.01634220394462688</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003056343123360011</v>
+        <v>-0.003056343123344232</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0006597461244822638</v>
+        <v>0.0006597461244845388</v>
       </c>
     </row>
     <row r="16">
@@ -1350,58 +1350,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2390426621256339</v>
+        <v>-0.239042662125634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2951855218780999</v>
+        <v>0.2951855218780996</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01831234014736316</v>
+        <v>0.0183123401473624</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2175004578435845</v>
+        <v>-0.2175004578435843</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0985457973617055</v>
+        <v>0.09854579736170438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4252337016128069</v>
+        <v>0.4252337016128075</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04686217689503163</v>
+        <v>0.04686217689505278</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2526613757391242</v>
+        <v>-0.2526613757391234</v>
       </c>
       <c r="J16" t="n">
-        <v>0.420612464151964</v>
+        <v>0.4206124641519794</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2414513747769269</v>
+        <v>0.2414513747768668</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5518263444129822</v>
+        <v>0.5518263444129957</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.07669261876812006</v>
+        <v>-0.07669261876811596</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05796528577381404</v>
+        <v>0.05796528577382151</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03444818570194642</v>
+        <v>0.03444818570192928</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.02829554105012267</v>
+        <v>-0.02829554105013123</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02351465426465416</v>
+        <v>-0.02351465426464944</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001897799968040408</v>
+        <v>0.001897799968019546</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.001413918419866769</v>
+        <v>-0.0014139184198636</v>
       </c>
     </row>
     <row r="17">
@@ -1411,58 +1411,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2210462102063996</v>
+        <v>-0.2210462102063998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224856881271046</v>
+        <v>0.2248568812710458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006563696356189349</v>
+        <v>0.006563696356188703</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3559377261234164</v>
+        <v>-0.355937726123416</v>
       </c>
       <c r="F17" t="n">
         <v>0.1223757882155797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1002691879559032</v>
+        <v>0.1002691879559028</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00353183704388763</v>
+        <v>-0.00353183704388361</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.474669875325877</v>
+        <v>-0.4746698753258708</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.5377214177373447</v>
+        <v>-0.5377214177373603</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4602021737601235</v>
+        <v>-0.4602021737600998</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.06951042882705118</v>
+        <v>-0.06951042882708061</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0400317190695275</v>
+        <v>0.04003171906951327</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1159140406416632</v>
+        <v>0.1159140406416654</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04646392949691614</v>
+        <v>0.04646392949691636</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01378311074460648</v>
+        <v>0.01378311074459972</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01830549287002382</v>
+        <v>0.01830549287002698</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002202865636212193</v>
+        <v>0.002202865636221276</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001394151987836253</v>
+        <v>0.0001394151987791391</v>
       </c>
     </row>
     <row r="18">
@@ -1475,55 +1475,55 @@
         <v>-0.2094007937400335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.145199069179604</v>
+        <v>0.1451990691796037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001750869994539115</v>
+        <v>0.001750869994538987</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4223621237999984</v>
+        <v>-0.4223621237999987</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1545193494403352</v>
+        <v>0.1545193494403355</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2441768863540465</v>
+        <v>-0.2441768863540433</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07018650155494555</v>
+        <v>-0.07018650155495779</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01663663494853412</v>
+        <v>-0.01663663494854766</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1359351529803765</v>
+        <v>-0.1359351529803415</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7107232082144433</v>
+        <v>0.7107232082144751</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3754835980490258</v>
+        <v>-0.3754835980489732</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0289167860301445</v>
+        <v>0.02891678603016242</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.03980765158226665</v>
+        <v>-0.03980765158228042</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.003721360573430601</v>
+        <v>-0.003721360573408081</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01253690354550829</v>
+        <v>0.01253690354549805</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02807476454477719</v>
+        <v>-0.02807476454477318</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0006188563802365548</v>
+        <v>-0.0006188563802531757</v>
       </c>
       <c r="S18" t="n">
-        <v>-2.245731773331096e-05</v>
+        <v>-2.245731772648239e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1533,13 +1533,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.203910085259737</v>
+        <v>-0.2039100852597371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08104267435778061</v>
+        <v>0.08104267435778043</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004087584214197966</v>
+        <v>-0.004087584214198001</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4057441975962063</v>
@@ -1548,43 +1548,43 @@
         <v>0.2208461660489219</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4541745983530979</v>
+        <v>-0.4541745983530882</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09665140655352694</v>
+        <v>-0.09665140655354676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2487020799709742</v>
+        <v>0.2487020799709803</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4875286504027169</v>
+        <v>0.4875286504026951</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4466124944723817</v>
+        <v>-0.4466124944724024</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.009798270318655123</v>
+        <v>-0.009798270318692294</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04310855603941698</v>
+        <v>0.04310855603940646</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.1379902973629556</v>
+        <v>-0.1379902973629511</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.04262722338736581</v>
+        <v>-0.04262722338736196</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02143733892456426</v>
+        <v>0.02143733892458166</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02333921641598109</v>
+        <v>0.02333921641597458</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001313407679971437</v>
+        <v>0.001313407679983377</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0004703467080142287</v>
+        <v>-0.0004703467080193776</v>
       </c>
     </row>
   </sheetData>
